--- a/LB2/N1/1/P1_1_Netzwerk-Einteilung.xlsx
+++ b/LB2/N1/1/P1_1_Netzwerk-Einteilung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tbzedu-my.sharepoint.com/personal/marcello_calisto_tbz_ch/Documents/03_TBZ/03_Module/M129 suk/03_Pruefungen/LB2/1_1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daten\TBZ\Module\M129\LB2\N1\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="425" documentId="14_{9B2D4022-8507-4489-B990-86D794CE8EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75B99D0D-85DF-4A9A-9403-2DD5DEF6053D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD673BB-F10B-430A-A674-254BAC522D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59340" yWindow="1935" windowWidth="23940" windowHeight="15270" xr2:uid="{8EB2D80C-05A7-4466-89C9-78363DE4D820}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{8EB2D80C-05A7-4466-89C9-78363DE4D820}"/>
   </bookViews>
   <sheets>
     <sheet name="LB2_1-1" sheetId="12" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="21">
   <si>
     <t>.</t>
   </si>
@@ -119,6 +119,30 @@
       </rPr>
       <t xml:space="preserve"> gleichgrosse Subnetze</t>
     </r>
+  </si>
+  <si>
+    <t>160.160.250.0</t>
+  </si>
+  <si>
+    <t>255.255.255.0</t>
+  </si>
+  <si>
+    <t>255.255.255.128</t>
+  </si>
+  <si>
+    <t>160.160.250.127</t>
+  </si>
+  <si>
+    <t>160.160.250.128/25</t>
+  </si>
+  <si>
+    <t>160.160.250.0/25</t>
+  </si>
+  <si>
+    <t>160.160.250.128</t>
+  </si>
+  <si>
+    <t>160.160.250.255</t>
   </si>
 </sst>
 </file>
@@ -314,6 +338,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -322,9 +349,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -343,10 +367,59 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>263384</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>45925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Grafik 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD606BA2-DDB8-4EAE-6CF4-CA6B89A3202D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10720691" y="1324043"/>
+          <a:ext cx="14003704" cy="7659169"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -384,7 +457,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -490,7 +563,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -632,7 +705,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -642,69 +715,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA0AF3A3-EDA9-450F-9ACB-CE0A3E838F7B}">
   <dimension ref="A1:AP27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:AM26"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="94" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="AR8" sqref="AR8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.1015625" customWidth="1"/>
-    <col min="2" max="2" width="0.5234375" customWidth="1"/>
-    <col min="3" max="3" width="17.83984375" customWidth="1"/>
-    <col min="4" max="4" width="0.5234375" customWidth="1"/>
-    <col min="5" max="12" width="2.7890625" customWidth="1"/>
-    <col min="13" max="13" width="1.62890625" customWidth="1"/>
-    <col min="14" max="21" width="2.7890625" customWidth="1"/>
-    <col min="22" max="22" width="1.62890625" customWidth="1"/>
-    <col min="23" max="30" width="2.7890625" customWidth="1"/>
-    <col min="31" max="31" width="1.62890625" customWidth="1"/>
-    <col min="32" max="39" width="2.7890625" customWidth="1"/>
-    <col min="40" max="40" width="0.578125" customWidth="1"/>
-    <col min="41" max="42" width="8.68359375" customWidth="1"/>
+    <col min="1" max="1" width="11.08984375" customWidth="1"/>
+    <col min="2" max="2" width="0.54296875" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" customWidth="1"/>
+    <col min="4" max="4" width="0.54296875" customWidth="1"/>
+    <col min="5" max="12" width="2.81640625" customWidth="1"/>
+    <col min="13" max="13" width="1.6328125" customWidth="1"/>
+    <col min="14" max="21" width="2.81640625" customWidth="1"/>
+    <col min="22" max="22" width="1.6328125" customWidth="1"/>
+    <col min="23" max="30" width="2.81640625" customWidth="1"/>
+    <col min="31" max="31" width="1.6328125" customWidth="1"/>
+    <col min="32" max="39" width="2.81640625" customWidth="1"/>
+    <col min="40" max="40" width="0.54296875" customWidth="1"/>
+    <col min="41" max="42" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:42" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="20"/>
-      <c r="AG1" s="20"/>
-      <c r="AH1" s="20"/>
-      <c r="AI1" s="20"/>
-      <c r="AJ1" s="20"/>
-      <c r="AK1" s="20"/>
-      <c r="AL1" s="20"/>
-      <c r="AM1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="21"/>
+      <c r="AJ1" s="21"/>
+      <c r="AK1" s="21"/>
+      <c r="AL1" s="21"/>
+      <c r="AM1" s="21"/>
       <c r="AN1" s="6"/>
       <c r="AO1" s="3" t="s">
         <v>1</v>
@@ -713,59 +786,71 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
+      <c r="E2" s="19">
+        <v>160</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
       <c r="M2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
+      <c r="N2" s="19">
+        <v>160</v>
+      </c>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
       <c r="V2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
+      <c r="W2" s="19">
+        <v>250</v>
+      </c>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
       <c r="AE2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="18"/>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="18"/>
-      <c r="AL2" s="18"/>
-      <c r="AM2" s="18"/>
+      <c r="AF2" s="19">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="19"/>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="19"/>
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="19"/>
+      <c r="AL2" s="19"/>
+      <c r="AM2" s="19"/>
       <c r="AN2" s="6"/>
-      <c r="AO2" s="4"/>
-      <c r="AP2" s="13"/>
+      <c r="AO2" s="4">
+        <v>7</v>
+      </c>
+      <c r="AP2" s="13">
+        <v>128</v>
+      </c>
     </row>
-    <row r="3" spans="1:42" ht="3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:42" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -809,7 +894,7 @@
       <c r="AO3" s="5"/>
       <c r="AP3" s="6"/>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -917,163 +1002,361 @@
       <c r="AO4" s="5"/>
       <c r="AP4" s="6"/>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
+      <c r="C5" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="D5" s="9"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
+      <c r="E5" s="15">
+        <v>1</v>
+      </c>
+      <c r="F5" s="15">
+        <v>0</v>
+      </c>
+      <c r="G5" s="15">
+        <v>1</v>
+      </c>
+      <c r="H5" s="15">
+        <v>0</v>
+      </c>
+      <c r="I5" s="15">
+        <v>0</v>
+      </c>
+      <c r="J5" s="15">
+        <v>0</v>
+      </c>
+      <c r="K5" s="15">
+        <v>0</v>
+      </c>
+      <c r="L5" s="15">
+        <v>0</v>
+      </c>
       <c r="M5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
+      <c r="N5" s="15">
+        <v>1</v>
+      </c>
+      <c r="O5" s="15">
+        <v>0</v>
+      </c>
+      <c r="P5" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="15">
+        <v>0</v>
+      </c>
+      <c r="R5" s="15">
+        <v>0</v>
+      </c>
+      <c r="S5" s="15">
+        <v>0</v>
+      </c>
+      <c r="T5" s="15">
+        <v>0</v>
+      </c>
+      <c r="U5" s="15">
+        <v>0</v>
+      </c>
       <c r="V5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="15"/>
-      <c r="AB5" s="15"/>
-      <c r="AC5" s="15"/>
-      <c r="AD5" s="15"/>
+      <c r="W5" s="15">
+        <v>1</v>
+      </c>
+      <c r="X5" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="15">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="15">
+        <v>0</v>
+      </c>
       <c r="AE5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="AF5" s="15"/>
-      <c r="AG5" s="15"/>
-      <c r="AH5" s="15"/>
-      <c r="AI5" s="15"/>
-      <c r="AJ5" s="15"/>
-      <c r="AK5" s="15"/>
-      <c r="AL5" s="15"/>
-      <c r="AM5" s="15"/>
+      <c r="AF5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="15">
+        <v>0</v>
+      </c>
       <c r="AN5" s="6"/>
       <c r="AO5" s="5"/>
       <c r="AP5" s="6"/>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="10"/>
-      <c r="C6" s="8"/>
+      <c r="C6" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="D6" s="11"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
+      <c r="E6" s="18">
+        <v>1</v>
+      </c>
+      <c r="F6" s="18">
+        <v>1</v>
+      </c>
+      <c r="G6" s="18">
+        <v>1</v>
+      </c>
+      <c r="H6" s="18">
+        <v>1</v>
+      </c>
+      <c r="I6" s="18">
+        <v>1</v>
+      </c>
+      <c r="J6" s="18">
+        <v>1</v>
+      </c>
+      <c r="K6" s="18">
+        <v>1</v>
+      </c>
+      <c r="L6" s="18">
+        <v>1</v>
+      </c>
       <c r="M6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
+      <c r="N6" s="18">
+        <v>1</v>
+      </c>
+      <c r="O6" s="18">
+        <v>1</v>
+      </c>
+      <c r="P6" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="18">
+        <v>1</v>
+      </c>
+      <c r="R6" s="18">
+        <v>1</v>
+      </c>
+      <c r="S6" s="18">
+        <v>1</v>
+      </c>
+      <c r="T6" s="18">
+        <v>1</v>
+      </c>
+      <c r="U6" s="18">
+        <v>1</v>
+      </c>
       <c r="V6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21"/>
-      <c r="AA6" s="21"/>
-      <c r="AB6" s="21"/>
-      <c r="AC6" s="21"/>
-      <c r="AD6" s="21"/>
+      <c r="W6" s="18">
+        <v>1</v>
+      </c>
+      <c r="X6" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="18">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="18">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="18">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="18">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="18">
+        <v>1</v>
+      </c>
       <c r="AE6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="AF6" s="21"/>
-      <c r="AG6" s="21"/>
-      <c r="AH6" s="21"/>
-      <c r="AI6" s="21"/>
-      <c r="AJ6" s="21"/>
-      <c r="AK6" s="21"/>
-      <c r="AL6" s="21"/>
-      <c r="AM6" s="21"/>
+      <c r="AF6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="18">
+        <v>0</v>
+      </c>
       <c r="AN6" s="6"/>
       <c r="AO6" s="5"/>
       <c r="AP6" s="6"/>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="10"/>
-      <c r="C7" s="8"/>
+      <c r="C7" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="D7" s="11"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
+      <c r="E7" s="18">
+        <v>1</v>
+      </c>
+      <c r="F7" s="18">
+        <v>1</v>
+      </c>
+      <c r="G7" s="18">
+        <v>1</v>
+      </c>
+      <c r="H7" s="18">
+        <v>1</v>
+      </c>
+      <c r="I7" s="18">
+        <v>1</v>
+      </c>
+      <c r="J7" s="18">
+        <v>1</v>
+      </c>
+      <c r="K7" s="18">
+        <v>1</v>
+      </c>
+      <c r="L7" s="18">
+        <v>1</v>
+      </c>
       <c r="M7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
+      <c r="N7" s="18">
+        <v>1</v>
+      </c>
+      <c r="O7" s="18">
+        <v>1</v>
+      </c>
+      <c r="P7" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="18">
+        <v>1</v>
+      </c>
+      <c r="R7" s="18">
+        <v>1</v>
+      </c>
+      <c r="S7" s="18">
+        <v>1</v>
+      </c>
+      <c r="T7" s="18">
+        <v>1</v>
+      </c>
+      <c r="U7" s="18">
+        <v>1</v>
+      </c>
       <c r="V7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="21"/>
-      <c r="AA7" s="21"/>
-      <c r="AB7" s="21"/>
-      <c r="AC7" s="21"/>
-      <c r="AD7" s="21"/>
+      <c r="W7" s="18">
+        <v>1</v>
+      </c>
+      <c r="X7" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="18">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="18">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="18">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="18">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="18">
+        <v>1</v>
+      </c>
       <c r="AE7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="AF7" s="21"/>
-      <c r="AG7" s="21"/>
-      <c r="AH7" s="21"/>
-      <c r="AI7" s="21"/>
-      <c r="AJ7" s="21"/>
-      <c r="AK7" s="21"/>
-      <c r="AL7" s="21"/>
-      <c r="AM7" s="21"/>
+      <c r="AF7" s="18">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="18">
+        <v>0</v>
+      </c>
       <c r="AN7" s="6"/>
       <c r="AO7" s="5"/>
       <c r="AP7" s="6"/>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -1117,217 +1400,477 @@
       <c r="AO8" s="5"/>
       <c r="AP8" s="6"/>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="16"/>
+      <c r="C9" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="D9" s="9"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
+      <c r="E9" s="18">
+        <v>1</v>
+      </c>
+      <c r="F9" s="18">
+        <v>0</v>
+      </c>
+      <c r="G9" s="18">
+        <v>1</v>
+      </c>
+      <c r="H9" s="18">
+        <v>0</v>
+      </c>
+      <c r="I9" s="18">
+        <v>0</v>
+      </c>
+      <c r="J9" s="18">
+        <v>0</v>
+      </c>
+      <c r="K9" s="18">
+        <v>0</v>
+      </c>
+      <c r="L9" s="18">
+        <v>0</v>
+      </c>
       <c r="M9" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
+      <c r="N9" s="18">
+        <v>1</v>
+      </c>
+      <c r="O9" s="18">
+        <v>0</v>
+      </c>
+      <c r="P9" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="18">
+        <v>0</v>
+      </c>
+      <c r="R9" s="18">
+        <v>0</v>
+      </c>
+      <c r="S9" s="18">
+        <v>0</v>
+      </c>
+      <c r="T9" s="18">
+        <v>0</v>
+      </c>
+      <c r="U9" s="18">
+        <v>0</v>
+      </c>
       <c r="V9" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="21"/>
-      <c r="Z9" s="21"/>
-      <c r="AA9" s="21"/>
-      <c r="AB9" s="21"/>
-      <c r="AC9" s="21"/>
-      <c r="AD9" s="21"/>
+      <c r="W9" s="18">
+        <v>1</v>
+      </c>
+      <c r="X9" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="18">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="18">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="18">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="18">
+        <v>0</v>
+      </c>
       <c r="AE9" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="AF9" s="21"/>
-      <c r="AG9" s="21"/>
-      <c r="AH9" s="21"/>
-      <c r="AI9" s="21"/>
-      <c r="AJ9" s="21"/>
-      <c r="AK9" s="21"/>
-      <c r="AL9" s="21"/>
-      <c r="AM9" s="21"/>
+      <c r="AF9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="18">
+        <v>0</v>
+      </c>
       <c r="AN9" s="6"/>
       <c r="AO9" s="5"/>
       <c r="AP9" s="6"/>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D10" s="9"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
+      <c r="E10" s="18">
+        <v>1</v>
+      </c>
+      <c r="F10" s="18">
+        <v>0</v>
+      </c>
+      <c r="G10" s="18">
+        <v>1</v>
+      </c>
+      <c r="H10" s="18">
+        <v>0</v>
+      </c>
+      <c r="I10" s="18">
+        <v>0</v>
+      </c>
+      <c r="J10" s="18">
+        <v>0</v>
+      </c>
+      <c r="K10" s="18">
+        <v>0</v>
+      </c>
+      <c r="L10" s="18">
+        <v>0</v>
+      </c>
       <c r="M10" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
+      <c r="N10" s="18">
+        <v>1</v>
+      </c>
+      <c r="O10" s="18">
+        <v>0</v>
+      </c>
+      <c r="P10" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="18">
+        <v>0</v>
+      </c>
+      <c r="R10" s="18">
+        <v>0</v>
+      </c>
+      <c r="S10" s="18">
+        <v>0</v>
+      </c>
+      <c r="T10" s="18">
+        <v>0</v>
+      </c>
+      <c r="U10" s="18">
+        <v>0</v>
+      </c>
       <c r="V10" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="W10" s="21"/>
-      <c r="X10" s="21"/>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="21"/>
-      <c r="AA10" s="21"/>
-      <c r="AB10" s="21"/>
-      <c r="AC10" s="21"/>
-      <c r="AD10" s="21"/>
+      <c r="W10" s="18">
+        <v>1</v>
+      </c>
+      <c r="X10" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="18">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="18">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="18">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="18">
+        <v>0</v>
+      </c>
       <c r="AE10" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="AF10" s="21"/>
-      <c r="AG10" s="21"/>
-      <c r="AH10" s="21"/>
-      <c r="AI10" s="21"/>
-      <c r="AJ10" s="21"/>
-      <c r="AK10" s="21"/>
-      <c r="AL10" s="21"/>
-      <c r="AM10" s="21"/>
+      <c r="AF10" s="18"/>
+      <c r="AG10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="18">
+        <v>0</v>
+      </c>
       <c r="AN10" s="6"/>
       <c r="AO10" s="5"/>
       <c r="AP10" s="6"/>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
+      <c r="C11" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="D11" s="9"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
+      <c r="E11" s="18">
+        <v>1</v>
+      </c>
+      <c r="F11" s="18">
+        <v>0</v>
+      </c>
+      <c r="G11" s="18">
+        <v>1</v>
+      </c>
+      <c r="H11" s="18">
+        <v>0</v>
+      </c>
+      <c r="I11" s="18">
+        <v>0</v>
+      </c>
+      <c r="J11" s="18">
+        <v>0</v>
+      </c>
+      <c r="K11" s="18">
+        <v>0</v>
+      </c>
+      <c r="L11" s="18">
+        <v>0</v>
+      </c>
       <c r="M11" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
+      <c r="N11" s="18">
+        <v>1</v>
+      </c>
+      <c r="O11" s="18">
+        <v>0</v>
+      </c>
+      <c r="P11" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="18">
+        <v>0</v>
+      </c>
+      <c r="R11" s="18">
+        <v>0</v>
+      </c>
+      <c r="S11" s="18">
+        <v>0</v>
+      </c>
+      <c r="T11" s="18">
+        <v>0</v>
+      </c>
+      <c r="U11" s="18">
+        <v>0</v>
+      </c>
       <c r="V11" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="W11" s="21"/>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="21"/>
-      <c r="Z11" s="21"/>
-      <c r="AA11" s="21"/>
-      <c r="AB11" s="21"/>
-      <c r="AC11" s="21"/>
-      <c r="AD11" s="21"/>
+      <c r="W11" s="18">
+        <v>1</v>
+      </c>
+      <c r="X11" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="18">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="18">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="18">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="18">
+        <v>0</v>
+      </c>
       <c r="AE11" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="AF11" s="21"/>
-      <c r="AG11" s="21"/>
-      <c r="AH11" s="21"/>
-      <c r="AI11" s="21"/>
-      <c r="AJ11" s="21"/>
-      <c r="AK11" s="21"/>
-      <c r="AL11" s="21"/>
-      <c r="AM11" s="21"/>
+      <c r="AF11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="18">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="18">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="18">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="18">
+        <v>1</v>
+      </c>
+      <c r="AK11" s="18">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="18">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="18">
+        <v>1</v>
+      </c>
       <c r="AN11" s="6"/>
       <c r="AO11" s="5"/>
       <c r="AP11" s="6"/>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
+      <c r="C12" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="D12" s="9"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
+      <c r="E12" s="18">
+        <v>1</v>
+      </c>
+      <c r="F12" s="18">
+        <v>0</v>
+      </c>
+      <c r="G12" s="18">
+        <v>1</v>
+      </c>
+      <c r="H12" s="18">
+        <v>0</v>
+      </c>
+      <c r="I12" s="18">
+        <v>0</v>
+      </c>
+      <c r="J12" s="18">
+        <v>0</v>
+      </c>
+      <c r="K12" s="18">
+        <v>0</v>
+      </c>
+      <c r="L12" s="18">
+        <v>0</v>
+      </c>
       <c r="M12" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
+      <c r="N12" s="18">
+        <v>1</v>
+      </c>
+      <c r="O12" s="18">
+        <v>0</v>
+      </c>
+      <c r="P12" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="18">
+        <v>0</v>
+      </c>
+      <c r="R12" s="18">
+        <v>0</v>
+      </c>
+      <c r="S12" s="18">
+        <v>0</v>
+      </c>
+      <c r="T12" s="18">
+        <v>0</v>
+      </c>
+      <c r="U12" s="18">
+        <v>0</v>
+      </c>
       <c r="V12" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="W12" s="21"/>
-      <c r="X12" s="21"/>
-      <c r="Y12" s="21"/>
-      <c r="Z12" s="21"/>
-      <c r="AA12" s="21"/>
-      <c r="AB12" s="21"/>
-      <c r="AC12" s="21"/>
-      <c r="AD12" s="21"/>
+      <c r="W12" s="18">
+        <v>1</v>
+      </c>
+      <c r="X12" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="18">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="18">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="18">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="18">
+        <v>0</v>
+      </c>
       <c r="AE12" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="AF12" s="21"/>
-      <c r="AG12" s="21"/>
-      <c r="AH12" s="21"/>
-      <c r="AI12" s="21"/>
-      <c r="AJ12" s="21"/>
-      <c r="AK12" s="21"/>
-      <c r="AL12" s="21"/>
-      <c r="AM12" s="21"/>
+      <c r="AF12" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="18">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="18">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="18">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="18">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="18">
+        <v>1</v>
+      </c>
+      <c r="AL12" s="18">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="18">
+        <v>1</v>
+      </c>
       <c r="AN12" s="6"/>
       <c r="AO12" s="5"/>
       <c r="AP12" s="6"/>
     </row>
-    <row r="13" spans="1:42" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:42" ht="21.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1371,51 +1914,51 @@
       <c r="AO13" s="5"/>
       <c r="AP13" s="6"/>
     </row>
-    <row r="14" spans="1:42" ht="43.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:42" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AO14" s="1"/>
     </row>
-    <row r="15" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="19" t="s">
+    <row r="15" spans="1:42" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="20"/>
-      <c r="W15" s="20"/>
-      <c r="X15" s="20"/>
-      <c r="Y15" s="20"/>
-      <c r="Z15" s="20"/>
-      <c r="AA15" s="20"/>
-      <c r="AB15" s="20"/>
-      <c r="AC15" s="20"/>
-      <c r="AD15" s="20"/>
-      <c r="AE15" s="20"/>
-      <c r="AF15" s="20"/>
-      <c r="AG15" s="20"/>
-      <c r="AH15" s="20"/>
-      <c r="AI15" s="20"/>
-      <c r="AJ15" s="20"/>
-      <c r="AK15" s="20"/>
-      <c r="AL15" s="20"/>
-      <c r="AM15" s="20"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="21"/>
+      <c r="AC15" s="21"/>
+      <c r="AD15" s="21"/>
+      <c r="AE15" s="21"/>
+      <c r="AF15" s="21"/>
+      <c r="AG15" s="21"/>
+      <c r="AH15" s="21"/>
+      <c r="AI15" s="21"/>
+      <c r="AJ15" s="21"/>
+      <c r="AK15" s="21"/>
+      <c r="AL15" s="21"/>
+      <c r="AM15" s="21"/>
       <c r="AN15" s="6"/>
       <c r="AO15" s="3" t="s">
         <v>1</v>
@@ -1424,59 +1967,71 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
+      <c r="E16" s="19">
+        <v>160</v>
+      </c>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
       <c r="M16" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="18"/>
+      <c r="N16" s="19">
+        <v>160</v>
+      </c>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
       <c r="V16" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="W16" s="18"/>
-      <c r="X16" s="18"/>
-      <c r="Y16" s="18"/>
-      <c r="Z16" s="18"/>
-      <c r="AA16" s="18"/>
-      <c r="AB16" s="18"/>
-      <c r="AC16" s="18"/>
-      <c r="AD16" s="18"/>
+      <c r="W16" s="19">
+        <v>250</v>
+      </c>
+      <c r="X16" s="19"/>
+      <c r="Y16" s="19"/>
+      <c r="Z16" s="19"/>
+      <c r="AA16" s="19"/>
+      <c r="AB16" s="19"/>
+      <c r="AC16" s="19"/>
+      <c r="AD16" s="19"/>
       <c r="AE16" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="AF16" s="18"/>
-      <c r="AG16" s="18"/>
-      <c r="AH16" s="18"/>
-      <c r="AI16" s="18"/>
-      <c r="AJ16" s="18"/>
-      <c r="AK16" s="18"/>
-      <c r="AL16" s="18"/>
-      <c r="AM16" s="18"/>
+      <c r="AF16" s="19">
+        <v>128</v>
+      </c>
+      <c r="AG16" s="19"/>
+      <c r="AH16" s="19"/>
+      <c r="AI16" s="19"/>
+      <c r="AJ16" s="19"/>
+      <c r="AK16" s="19"/>
+      <c r="AL16" s="19"/>
+      <c r="AM16" s="19"/>
       <c r="AN16" s="6"/>
-      <c r="AO16" s="4"/>
-      <c r="AP16" s="13"/>
+      <c r="AO16" s="4">
+        <v>7</v>
+      </c>
+      <c r="AP16" s="13">
+        <v>128</v>
+      </c>
     </row>
-    <row r="17" spans="1:42" ht="3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:42" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -1520,7 +2075,7 @@
       <c r="AO17" s="5"/>
       <c r="AP17" s="6"/>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -1628,163 +2183,361 @@
       <c r="AO18" s="5"/>
       <c r="AP18" s="6"/>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
+      <c r="C19" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="D19" s="9"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
+      <c r="E19" s="15">
+        <v>1</v>
+      </c>
+      <c r="F19" s="15">
+        <v>0</v>
+      </c>
+      <c r="G19" s="15">
+        <v>1</v>
+      </c>
+      <c r="H19" s="15">
+        <v>0</v>
+      </c>
+      <c r="I19" s="15">
+        <v>0</v>
+      </c>
+      <c r="J19" s="15">
+        <v>0</v>
+      </c>
+      <c r="K19" s="15">
+        <v>0</v>
+      </c>
+      <c r="L19" s="15">
+        <v>0</v>
+      </c>
       <c r="M19" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15"/>
+      <c r="N19" s="15">
+        <v>1</v>
+      </c>
+      <c r="O19" s="15">
+        <v>0</v>
+      </c>
+      <c r="P19" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="15">
+        <v>0</v>
+      </c>
+      <c r="R19" s="15">
+        <v>0</v>
+      </c>
+      <c r="S19" s="15">
+        <v>0</v>
+      </c>
+      <c r="T19" s="15">
+        <v>0</v>
+      </c>
+      <c r="U19" s="15">
+        <v>0</v>
+      </c>
       <c r="V19" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="W19" s="15"/>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="15"/>
-      <c r="AA19" s="15"/>
-      <c r="AB19" s="15"/>
-      <c r="AC19" s="15"/>
-      <c r="AD19" s="15"/>
+      <c r="W19" s="15">
+        <v>1</v>
+      </c>
+      <c r="X19" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="15">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="15">
+        <v>0</v>
+      </c>
       <c r="AE19" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="AF19" s="15"/>
-      <c r="AG19" s="15"/>
-      <c r="AH19" s="15"/>
-      <c r="AI19" s="15"/>
-      <c r="AJ19" s="15"/>
-      <c r="AK19" s="15"/>
-      <c r="AL19" s="15"/>
-      <c r="AM19" s="15"/>
+      <c r="AF19" s="15">
+        <v>1</v>
+      </c>
+      <c r="AG19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="15">
+        <v>0</v>
+      </c>
       <c r="AN19" s="6"/>
       <c r="AO19" s="5"/>
       <c r="AP19" s="6"/>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B20" s="10"/>
-      <c r="C20" s="8"/>
+      <c r="C20" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="D20" s="11"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
+      <c r="E20" s="18">
+        <v>1</v>
+      </c>
+      <c r="F20" s="18">
+        <v>1</v>
+      </c>
+      <c r="G20" s="18">
+        <v>1</v>
+      </c>
+      <c r="H20" s="18">
+        <v>1</v>
+      </c>
+      <c r="I20" s="18">
+        <v>1</v>
+      </c>
+      <c r="J20" s="18">
+        <v>1</v>
+      </c>
+      <c r="K20" s="18">
+        <v>1</v>
+      </c>
+      <c r="L20" s="18">
+        <v>1</v>
+      </c>
       <c r="M20" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
+      <c r="N20" s="18">
+        <v>1</v>
+      </c>
+      <c r="O20" s="18">
+        <v>1</v>
+      </c>
+      <c r="P20" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="18">
+        <v>1</v>
+      </c>
+      <c r="R20" s="18">
+        <v>1</v>
+      </c>
+      <c r="S20" s="18">
+        <v>1</v>
+      </c>
+      <c r="T20" s="18">
+        <v>1</v>
+      </c>
+      <c r="U20" s="18">
+        <v>1</v>
+      </c>
       <c r="V20" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="W20" s="21"/>
-      <c r="X20" s="21"/>
-      <c r="Y20" s="21"/>
-      <c r="Z20" s="21"/>
-      <c r="AA20" s="21"/>
-      <c r="AB20" s="21"/>
-      <c r="AC20" s="21"/>
-      <c r="AD20" s="21"/>
+      <c r="W20" s="18">
+        <v>1</v>
+      </c>
+      <c r="X20" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="18">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="18">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="18">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="18">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="18">
+        <v>1</v>
+      </c>
       <c r="AE20" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="AF20" s="21"/>
-      <c r="AG20" s="21"/>
-      <c r="AH20" s="21"/>
-      <c r="AI20" s="21"/>
-      <c r="AJ20" s="21"/>
-      <c r="AK20" s="21"/>
-      <c r="AL20" s="21"/>
-      <c r="AM20" s="21"/>
+      <c r="AF20" s="18">
+        <v>1</v>
+      </c>
+      <c r="AG20" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="18">
+        <v>0</v>
+      </c>
       <c r="AN20" s="6"/>
       <c r="AO20" s="5"/>
       <c r="AP20" s="6"/>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="10"/>
-      <c r="C21" s="8"/>
+      <c r="C21" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="D21" s="11"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
+      <c r="E21" s="18">
+        <v>1</v>
+      </c>
+      <c r="F21" s="18">
+        <v>1</v>
+      </c>
+      <c r="G21" s="18">
+        <v>1</v>
+      </c>
+      <c r="H21" s="18">
+        <v>1</v>
+      </c>
+      <c r="I21" s="18">
+        <v>1</v>
+      </c>
+      <c r="J21" s="18">
+        <v>1</v>
+      </c>
+      <c r="K21" s="18">
+        <v>1</v>
+      </c>
+      <c r="L21" s="18">
+        <v>1</v>
+      </c>
       <c r="M21" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
+      <c r="N21" s="18">
+        <v>1</v>
+      </c>
+      <c r="O21" s="18">
+        <v>1</v>
+      </c>
+      <c r="P21" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="18">
+        <v>1</v>
+      </c>
+      <c r="R21" s="18">
+        <v>1</v>
+      </c>
+      <c r="S21" s="18">
+        <v>1</v>
+      </c>
+      <c r="T21" s="18">
+        <v>1</v>
+      </c>
+      <c r="U21" s="18">
+        <v>1</v>
+      </c>
       <c r="V21" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="W21" s="21"/>
-      <c r="X21" s="21"/>
-      <c r="Y21" s="21"/>
-      <c r="Z21" s="21"/>
-      <c r="AA21" s="21"/>
-      <c r="AB21" s="21"/>
-      <c r="AC21" s="21"/>
-      <c r="AD21" s="21"/>
+      <c r="W21" s="18">
+        <v>1</v>
+      </c>
+      <c r="X21" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="18">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="18">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="18">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="18">
+        <v>1</v>
+      </c>
+      <c r="AD21" s="18">
+        <v>1</v>
+      </c>
       <c r="AE21" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="AF21" s="21"/>
-      <c r="AG21" s="21"/>
-      <c r="AH21" s="21"/>
-      <c r="AI21" s="21"/>
-      <c r="AJ21" s="21"/>
-      <c r="AK21" s="21"/>
-      <c r="AL21" s="21"/>
-      <c r="AM21" s="21"/>
+      <c r="AF21" s="18">
+        <v>1</v>
+      </c>
+      <c r="AG21" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="18">
+        <v>0</v>
+      </c>
       <c r="AN21" s="6"/>
       <c r="AO21" s="5"/>
       <c r="AP21" s="6"/>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -1828,215 +2581,479 @@
       <c r="AO22" s="5"/>
       <c r="AP22" s="6"/>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A23" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="8"/>
-      <c r="C23" s="16"/>
+      <c r="C23" s="16" t="s">
+        <v>19</v>
+      </c>
       <c r="D23" s="9"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
+      <c r="E23" s="18">
+        <v>1</v>
+      </c>
+      <c r="F23" s="18">
+        <v>0</v>
+      </c>
+      <c r="G23" s="18">
+        <v>1</v>
+      </c>
+      <c r="H23" s="18">
+        <v>0</v>
+      </c>
+      <c r="I23" s="18">
+        <v>0</v>
+      </c>
+      <c r="J23" s="18">
+        <v>0</v>
+      </c>
+      <c r="K23" s="18">
+        <v>0</v>
+      </c>
+      <c r="L23" s="18">
+        <v>0</v>
+      </c>
       <c r="M23" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="21"/>
-      <c r="U23" s="21"/>
+      <c r="N23" s="18">
+        <v>1</v>
+      </c>
+      <c r="O23" s="18">
+        <v>0</v>
+      </c>
+      <c r="P23" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="18">
+        <v>0</v>
+      </c>
+      <c r="R23" s="18">
+        <v>0</v>
+      </c>
+      <c r="S23" s="18">
+        <v>0</v>
+      </c>
+      <c r="T23" s="18">
+        <v>0</v>
+      </c>
+      <c r="U23" s="18">
+        <v>0</v>
+      </c>
       <c r="V23" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="W23" s="21"/>
-      <c r="X23" s="21"/>
-      <c r="Y23" s="21"/>
-      <c r="Z23" s="21"/>
-      <c r="AA23" s="21"/>
-      <c r="AB23" s="21"/>
-      <c r="AC23" s="21"/>
-      <c r="AD23" s="21"/>
+      <c r="W23" s="18">
+        <v>1</v>
+      </c>
+      <c r="X23" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="18">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="18">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="18">
+        <v>1</v>
+      </c>
+      <c r="AD23" s="18">
+        <v>0</v>
+      </c>
       <c r="AE23" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="AF23" s="21"/>
-      <c r="AG23" s="21"/>
-      <c r="AH23" s="21"/>
-      <c r="AI23" s="21"/>
-      <c r="AJ23" s="21"/>
-      <c r="AK23" s="21"/>
-      <c r="AL23" s="21"/>
-      <c r="AM23" s="21"/>
+      <c r="AF23" s="18">
+        <v>1</v>
+      </c>
+      <c r="AG23" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM23" s="18">
+        <v>0</v>
+      </c>
       <c r="AN23" s="6"/>
       <c r="AO23" s="5"/>
       <c r="AP23" s="6"/>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
+      <c r="C24" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="D24" s="9"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
+      <c r="E24" s="18">
+        <v>1</v>
+      </c>
+      <c r="F24" s="18">
+        <v>0</v>
+      </c>
+      <c r="G24" s="18">
+        <v>1</v>
+      </c>
+      <c r="H24" s="18">
+        <v>0</v>
+      </c>
+      <c r="I24" s="18">
+        <v>0</v>
+      </c>
+      <c r="J24" s="18">
+        <v>0</v>
+      </c>
+      <c r="K24" s="18">
+        <v>0</v>
+      </c>
+      <c r="L24" s="18">
+        <v>0</v>
+      </c>
       <c r="M24" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="21"/>
+      <c r="N24" s="18">
+        <v>1</v>
+      </c>
+      <c r="O24" s="18">
+        <v>0</v>
+      </c>
+      <c r="P24" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="18">
+        <v>0</v>
+      </c>
+      <c r="R24" s="18">
+        <v>0</v>
+      </c>
+      <c r="S24" s="18">
+        <v>0</v>
+      </c>
+      <c r="T24" s="18">
+        <v>0</v>
+      </c>
+      <c r="U24" s="18">
+        <v>0</v>
+      </c>
       <c r="V24" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="W24" s="21"/>
-      <c r="X24" s="21"/>
-      <c r="Y24" s="21"/>
-      <c r="Z24" s="21"/>
-      <c r="AA24" s="21"/>
-      <c r="AB24" s="21"/>
-      <c r="AC24" s="21"/>
-      <c r="AD24" s="21"/>
+      <c r="W24" s="18">
+        <v>1</v>
+      </c>
+      <c r="X24" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="18">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="18">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="18">
+        <v>1</v>
+      </c>
+      <c r="AD24" s="18">
+        <v>0</v>
+      </c>
       <c r="AE24" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="AF24" s="21"/>
-      <c r="AG24" s="21"/>
-      <c r="AH24" s="21"/>
-      <c r="AI24" s="21"/>
-      <c r="AJ24" s="21"/>
-      <c r="AK24" s="21"/>
-      <c r="AL24" s="21"/>
-      <c r="AM24" s="21"/>
+      <c r="AF24" s="18">
+        <v>1</v>
+      </c>
+      <c r="AG24" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM24" s="18">
+        <v>0</v>
+      </c>
       <c r="AN24" s="6"/>
       <c r="AO24" s="5"/>
       <c r="AP24" s="6"/>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
+      <c r="C25" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="D25" s="9"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
+      <c r="E25" s="18">
+        <v>1</v>
+      </c>
+      <c r="F25" s="18">
+        <v>0</v>
+      </c>
+      <c r="G25" s="18">
+        <v>1</v>
+      </c>
+      <c r="H25" s="18">
+        <v>0</v>
+      </c>
+      <c r="I25" s="18">
+        <v>0</v>
+      </c>
+      <c r="J25" s="18">
+        <v>0</v>
+      </c>
+      <c r="K25" s="18">
+        <v>0</v>
+      </c>
+      <c r="L25" s="18">
+        <v>0</v>
+      </c>
       <c r="M25" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="21"/>
-      <c r="U25" s="21"/>
+      <c r="N25" s="18">
+        <v>1</v>
+      </c>
+      <c r="O25" s="18">
+        <v>0</v>
+      </c>
+      <c r="P25" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="18">
+        <v>0</v>
+      </c>
+      <c r="R25" s="18">
+        <v>0</v>
+      </c>
+      <c r="S25" s="18">
+        <v>0</v>
+      </c>
+      <c r="T25" s="18">
+        <v>0</v>
+      </c>
+      <c r="U25" s="18">
+        <v>0</v>
+      </c>
       <c r="V25" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="W25" s="21"/>
-      <c r="X25" s="21"/>
-      <c r="Y25" s="21"/>
-      <c r="Z25" s="21"/>
-      <c r="AA25" s="21"/>
-      <c r="AB25" s="21"/>
-      <c r="AC25" s="21"/>
-      <c r="AD25" s="21"/>
+      <c r="W25" s="18">
+        <v>1</v>
+      </c>
+      <c r="X25" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="18">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="18">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="18">
+        <v>1</v>
+      </c>
+      <c r="AD25" s="18">
+        <v>0</v>
+      </c>
       <c r="AE25" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="AF25" s="21"/>
-      <c r="AG25" s="21"/>
-      <c r="AH25" s="21"/>
-      <c r="AI25" s="21"/>
-      <c r="AJ25" s="21"/>
-      <c r="AK25" s="21"/>
-      <c r="AL25" s="21"/>
-      <c r="AM25" s="21"/>
+      <c r="AF25" s="18">
+        <v>1</v>
+      </c>
+      <c r="AG25" s="18">
+        <v>1</v>
+      </c>
+      <c r="AH25" s="18">
+        <v>1</v>
+      </c>
+      <c r="AI25" s="18">
+        <v>1</v>
+      </c>
+      <c r="AJ25" s="18">
+        <v>1</v>
+      </c>
+      <c r="AK25" s="18">
+        <v>1</v>
+      </c>
+      <c r="AL25" s="18">
+        <v>1</v>
+      </c>
+      <c r="AM25" s="18">
+        <v>1</v>
+      </c>
       <c r="AN25" s="6"/>
       <c r="AO25" s="5"/>
       <c r="AP25" s="6"/>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
+      <c r="C26" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="D26" s="9"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
+      <c r="E26" s="18">
+        <v>1</v>
+      </c>
+      <c r="F26" s="18">
+        <v>0</v>
+      </c>
+      <c r="G26" s="18">
+        <v>1</v>
+      </c>
+      <c r="H26" s="18">
+        <v>0</v>
+      </c>
+      <c r="I26" s="18">
+        <v>0</v>
+      </c>
+      <c r="J26" s="18">
+        <v>0</v>
+      </c>
+      <c r="K26" s="18">
+        <v>0</v>
+      </c>
+      <c r="L26" s="18">
+        <v>0</v>
+      </c>
       <c r="M26" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="21"/>
-      <c r="S26" s="21"/>
-      <c r="T26" s="21"/>
-      <c r="U26" s="21"/>
+      <c r="N26" s="18">
+        <v>1</v>
+      </c>
+      <c r="O26" s="18">
+        <v>0</v>
+      </c>
+      <c r="P26" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="18">
+        <v>0</v>
+      </c>
+      <c r="R26" s="18">
+        <v>0</v>
+      </c>
+      <c r="S26" s="18">
+        <v>0</v>
+      </c>
+      <c r="T26" s="18">
+        <v>0</v>
+      </c>
+      <c r="U26" s="18">
+        <v>0</v>
+      </c>
       <c r="V26" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="W26" s="21"/>
-      <c r="X26" s="21"/>
-      <c r="Y26" s="21"/>
-      <c r="Z26" s="21"/>
-      <c r="AA26" s="21"/>
-      <c r="AB26" s="21"/>
-      <c r="AC26" s="21"/>
-      <c r="AD26" s="21"/>
+      <c r="W26" s="18">
+        <v>1</v>
+      </c>
+      <c r="X26" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="18">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="18">
+        <v>1</v>
+      </c>
+      <c r="AB26" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="18">
+        <v>1</v>
+      </c>
+      <c r="AD26" s="18">
+        <v>0</v>
+      </c>
       <c r="AE26" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="AF26" s="21"/>
-      <c r="AG26" s="21"/>
-      <c r="AH26" s="21"/>
-      <c r="AI26" s="21"/>
-      <c r="AJ26" s="21"/>
-      <c r="AK26" s="21"/>
-      <c r="AL26" s="21"/>
-      <c r="AM26" s="21"/>
+      <c r="AF26" s="18">
+        <v>1</v>
+      </c>
+      <c r="AG26" s="18">
+        <v>1</v>
+      </c>
+      <c r="AH26" s="18">
+        <v>1</v>
+      </c>
+      <c r="AI26" s="18">
+        <v>1</v>
+      </c>
+      <c r="AJ26" s="18">
+        <v>1</v>
+      </c>
+      <c r="AK26" s="18">
+        <v>1</v>
+      </c>
+      <c r="AL26" s="18">
+        <v>1</v>
+      </c>
+      <c r="AM26" s="18">
+        <v>1</v>
+      </c>
       <c r="AN26" s="6"/>
       <c r="AO26" s="5"/>
       <c r="AP26" s="6"/>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -2099,5 +3116,6 @@
     <oddHeader xml:space="preserve">&amp;LIP Subnetting / CAL
 </oddHeader>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>